--- a/biology/Histoire de la zoologie et de la botanique/Arthur_Henry_Shakespeare_Lucas/Arthur_Henry_Shakespeare_Lucas.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Arthur_Henry_Shakespeare_Lucas/Arthur_Henry_Shakespeare_Lucas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arthur Henry Shakespeare Lucas est un naturaliste australien d’origine britannique, né le 7 mai 1853 à Stratford-upon-Avon dans le Warwickshire et mort le 10 juin 1936 à Albury en Nouvelle-Galles du Sud.
 Lucas fait ses études à Oxford où il obtient son Bachelor of Arts en 1874 et son Master of Arts en 1877 ainsi qu’à Londres où il obtient son Doctorat of Sciences. Il enseigne à la Lays School de Cambridge de 1878 à 1882 avant de partir en Australie. Il y enseigne alors les mathématiques et les sciences au Wesley College de Melbourne de 1883 à 1891. Il participe à la fondation du Queen’s College de l’université de Melbourne. Il dirige le Newington College de Sydney de 1892 à 1898, puis enseigne les mathématiques et les sciences au Sydney Grammar School de Sydney de 1899 à 1916, qu’il dirige de 1916 à 1913. Enfin, il enseigne les mathématiques à l’université de Tasmanie de 1924 à 1925.
@@ -513,7 +525,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>The Birds of Australia (Whitcombe &amp; Tombs, Melbourne, 1911).
 Avec Charles Percy Sanger (1871-1930), il traduit les travaux notamment de Bertrand Russell (1872-1970) sous le titre de Space, Time, Motion. An historical introduction to the general theory of relativity... (Chatto &amp; Windus, Londres, 1924).</t>
